--- a/H2CS2/inputs/input_final_High_taxes.xlsx
+++ b/H2CS2/inputs/input_final_High_taxes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ethz-my.sharepoint.com/personal/dberti_ethz_ch/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{807454A5-6F38-4F82-9CF7-509D3F5A7640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8E040B9-5EDF-40DA-B9A1-9498AAC1A788}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{807454A5-6F38-4F82-9CF7-509D3F5A7640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2160C19A-385E-4BC6-936A-F57E5A957888}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
   </bookViews>
@@ -42109,8 +42109,7 @@
         <v>2030</v>
       </c>
       <c r="E3">
-        <f>0</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -42127,7 +42126,7 @@
         <v>2040</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -42144,7 +42143,7 @@
         <v>2050</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/H2CS2/inputs/input_final_High_taxes.xlsx
+++ b/H2CS2/inputs/input_final_High_taxes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ethz-my.sharepoint.com/personal/dberti_ethz_ch/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ethz-my.sharepoint.com/personal/dberti_ethz_ch/Documents/julia/Case-Study-ETH/H2CS2/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{807454A5-6F38-4F82-9CF7-509D3F5A7640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2160C19A-385E-4BC6-936A-F57E5A957888}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{807454A5-6F38-4F82-9CF7-509D3F5A7640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3BC10E8-87F4-4289-834D-B814AB1890FC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{B45309CD-61A4-4A28-84F6-A1F6AFA13388}"/>
   </bookViews>
@@ -42109,7 +42109,7 @@
         <v>2030</v>
       </c>
       <c r="E3">
-        <v>150</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -42126,7 +42126,7 @@
         <v>2040</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -42143,7 +42143,7 @@
         <v>2050</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
